--- a/Java_OneDay_Memo/메모장-테이블명세.xlsx
+++ b/Java_OneDay_Memo/메모장-테이블명세.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KMS5050022\Documents\workspace\java\Java_OneDay_Memo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68DAE69F-2B7C-4A29-B8A5-192E7F272F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC6D34E-AA49-49D3-A989-EBB4DE8E3B44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="10590" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16500" yWindow="0" windowWidth="12405" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="테이블명세" sheetId="2" r:id="rId1"/>
